--- a/biology/Botanique/Luzuriagaceae/Luzuriagaceae.xlsx
+++ b/biology/Botanique/Luzuriagaceae/Luzuriagaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En classification phylogénétique, la famille des Luzuriagaceae regroupe des plantes monocotylédones ; elle comprend 6 espèces réparties en 2 genres :
 Drymophila (en)
@@ -514,9 +526,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Luzuriaga, qui honore Don Ignacio Maria Ruiz de Luzuriaga, médecin, chimiste et botaniste espagnol né en 1763, promoteur de la vaccination contre la variole dès 1801, soit plus de 80 ans avant les travaux de Louis Pasteur[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Luzuriaga, qui honore Don Ignacio Maria Ruiz de Luzuriaga, médecin, chimiste et botaniste espagnol né en 1763, promoteur de la vaccination contre la variole dès 1801, soit plus de 80 ans avant les travaux de Louis Pasteur,.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Si la classification phylogénétique APG II (2003)[3] reconnaissait cette famille, par contre la classification phylogénétique APG III (2009)[4] l'a rendue invalide en l'incorporant dans la famille Alstroemeriaceae.
-En classification classique de Cronquist (1981)[5] la famille n'existe pas et ces plantes sont intégrées aux Smilacaceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si la classification phylogénétique APG II (2003) reconnaissait cette famille, par contre la classification phylogénétique APG III (2009) l'a rendue invalide en l'incorporant dans la famille Alstroemeriaceae.
+En classification classique de Cronquist (1981) la famille n'existe pas et ces plantes sont intégrées aux Smilacaceae.
 </t>
         </is>
       </c>
